--- a/sum.xlsx
+++ b/sum.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="199">
   <si>
     <t>Пациент</t>
   </si>
@@ -44,81 +44,81 @@
     <t>вес</t>
   </si>
   <si>
-    <t>100</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>диабет</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Класс по NYHA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ТИА\ОНМК</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>АГ ст</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ХЗЛ</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Аритмия</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Предшествующие вмешательства</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>euroscore&lt;5 5-10 &gt;10</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t>STS score &lt;3 3-8 &gt;8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Градиент давления пиковый</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>диабет</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Класс по NYHA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ТИА\ОНМК</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>АГ ст</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>ХЗЛ</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Аритмия</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Предшествующие вмешательства</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>euroscore&lt;5 5-10 &gt;10</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t>STS score &lt;3 3-8 &gt;8</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Градиент давления пиковый</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>градиент давления средний</t>
   </si>
   <si>
@@ -281,135 +281,138 @@
     <t>24</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2</t>
+  </si>
+  <si>
+    <t>01.08.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t>01.08.2013</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1 тип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0,58</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
-    <t xml:space="preserve">  8</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2</t>
-  </si>
-  <si>
-    <t>01.08.2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
-    <t>01.08.2013</t>
-  </si>
-  <si>
-    <t>ок</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1 тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>0,58</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
     <t>М</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>2 тип</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>1.16</t>
   </si>
   <si>
@@ -515,7 +524,7 @@
     <t>03.02.2012</t>
   </si>
   <si>
-    <t>108</t>
+    <t>59</t>
   </si>
   <si>
     <t>1.3</t>
@@ -542,9 +551,6 @@
     <t>43</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>1.38</t>
   </si>
   <si>
@@ -563,6 +569,9 @@
     <t>03.09.2014</t>
   </si>
   <si>
+    <t>60.5</t>
+  </si>
+  <si>
     <t>1.4</t>
   </si>
   <si>
@@ -585,9 +594,6 @@
   </si>
   <si>
     <t>03.11.2012</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
   <si>
     <t>1.56</t>
@@ -892,13 +898,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="7">
         <v>120</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s" s="7">
         <v>82</v>
@@ -997,22 +1003,22 @@
         <v>130</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s" s="7">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s" s="7">
         <v>119</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s" s="7">
         <v>45</v>
       </c>
       <c r="J8" t="s" s="7">
-        <v>191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1026,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s" s="7">
         <v>8</v>
@@ -1041,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s" s="7">
         <v>8</v>
@@ -1087,28 +1093,28 @@
         <v>89</v>
       </c>
       <c r="C11" t="s" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s" s="7">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s" s="7">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s" s="7">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="7">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s" s="7">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="7">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="J11" t="s" s="7">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1116,19 +1122,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="7">
         <v>11</v>
       </c>
       <c r="D12" t="s" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s" s="7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s" s="7">
         <v>11</v>
@@ -1137,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="I12" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1180,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="7">
         <v>122</v>
       </c>
       <c r="D14" t="s" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s" s="7">
         <v>82</v>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="7">
         <v>82</v>
@@ -1305,7 +1311,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s" s="7">
         <v>91</v>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s" s="8">
         <v>82</v>
@@ -1372,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="7">
         <v>82</v>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>92</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s" s="8">
         <v>82</v>
@@ -1468,13 +1474,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C23" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="D23" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s" s="7">
         <v>82</v>
@@ -1497,16 +1503,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s" s="7">
         <v>82</v>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s" s="8">
         <v>82</v>
@@ -1564,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s" s="7">
         <v>82</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s" s="7">
         <v>93</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s" s="8">
         <v>82</v>
@@ -1660,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s" s="7">
         <v>82</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s" s="7">
         <v>88</v>
@@ -1721,7 +1727,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s" s="8">
         <v>82</v>
@@ -1756,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="7">
         <v>82</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s" s="7">
         <v>94</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s" s="8">
         <v>82</v>
@@ -1849,48 +1855,48 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s" s="7">
         <v>124</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s" s="7">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s" s="7">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H35" t="s" s="7">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s" s="7">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s" s="7">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s" s="7">
         <v>58</v>
       </c>
       <c r="D36" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s" s="7">
         <v>8</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s" s="8">
         <v>82</v>
@@ -1945,71 +1951,71 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s" s="7">
         <v>125</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s" s="7">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s" s="7">
         <v>124</v>
       </c>
       <c r="I38" t="s" s="7">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s" s="7">
         <v>126</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s" s="7">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s" s="7">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="7">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s" s="8">
         <v>82</v>
@@ -2041,7 +2047,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s" s="7">
         <v>95</v>
@@ -2050,13 +2056,13 @@
         <v>49</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s" s="7">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s" s="7">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s" s="7">
         <v>79</v>
@@ -2065,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="7">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J41" t="s" s="7">
         <v>129</v>
@@ -2073,31 +2079,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="F42" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C42" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s" s="7">
+      <c r="G42" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E42" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="H42" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I42" t="s" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J42" t="s" s="7">
         <v>126</v>
@@ -2146,22 +2152,22 @@
         <v>127</v>
       </c>
       <c r="D44" t="s" s="7">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s" s="7">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s" s="7">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s" s="7">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H44" t="s" s="7">
         <v>119</v>
       </c>
       <c r="I44" t="s" s="7">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J44" t="s" s="7">
         <v>109</v>
@@ -2175,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s" s="7">
         <v>58</v>
@@ -2242,25 +2248,25 @@
         <v>128</v>
       </c>
       <c r="D47" t="s" s="7">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s" s="7">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s" s="7">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s" s="7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s" s="7">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I47" t="s" s="7">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J47" t="s" s="7">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48">
@@ -2289,10 +2295,10 @@
         <v>8</v>
       </c>
       <c r="I48" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s" s="7">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
@@ -2332,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C50" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="D50" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s" s="7">
         <v>82</v>
@@ -2425,10 +2431,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="B53" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="C53" t="s" s="7">
         <v>82</v>
@@ -2521,7 +2527,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s" s="7">
         <v>101</v>
@@ -2530,7 +2536,7 @@
         <v>88</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s" s="7">
         <v>114</v>
@@ -2539,48 +2545,48 @@
         <v>127</v>
       </c>
       <c r="G56" t="s" s="7">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H56" t="s" s="7">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I56" t="s" s="7">
         <v>119</v>
       </c>
       <c r="J56" t="s" s="7">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="D57" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C57" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="E57" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F57" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="H57" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I57" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J57" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -2620,10 +2626,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C59" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D59" t="s" s="7">
         <v>82</v>
@@ -2716,10 +2722,10 @@
         <v>4</v>
       </c>
       <c r="B62" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C62" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D62" t="s" s="7">
         <v>82</v>
@@ -2812,10 +2818,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C65" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D65" t="s" s="7">
         <v>82</v>
@@ -2908,10 +2914,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C68" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D68" t="s" s="7">
         <v>82</v>
@@ -3010,57 +3016,57 @@
         <v>117</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s" s="7">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s" s="7">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G71" t="s" s="7">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H71" t="s" s="7">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I71" t="s" s="7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J71" t="s" s="7">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J72" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -3097,7 +3103,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s" s="7">
         <v>82</v>
@@ -3199,65 +3205,65 @@
         <v>91</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s" s="7">
         <v>51</v>
       </c>
       <c r="F77" t="s" s="7">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G77" t="s" s="7">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H77" t="s" s="7">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I77" t="s" s="7">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J77" t="s" s="7">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="I78" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J78" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s" s="8">
         <v>82</v>
@@ -3289,28 +3295,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s" s="7">
         <v>126</v>
       </c>
       <c r="D80" t="s" s="7">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s" s="7">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s" s="7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G80" t="s" s="7">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H80" t="s" s="7">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I80" t="s" s="7">
         <v>103</v>
@@ -3330,10 +3336,10 @@
         <v>101</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s" s="7">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s" s="7">
         <v>98</v>
@@ -3388,36 +3394,36 @@
         <v>4</v>
       </c>
       <c r="B83" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C83" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="D83" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s" s="7">
         <v>126</v>
       </c>
       <c r="F83" t="s" s="7">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s" s="7">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H83" t="s" s="7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I83" t="s" s="7">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J83" t="s" s="7">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s" s="7">
         <v>58</v>
@@ -3484,13 +3490,13 @@
         <v>4</v>
       </c>
       <c r="B86" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C86" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="D86" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s" s="7">
         <v>82</v>
@@ -3580,10 +3586,10 @@
         <v>4</v>
       </c>
       <c r="B89" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C89" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D89" t="s" s="7">
         <v>82</v>
@@ -3615,7 +3621,7 @@
         <v>108</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s" s="7">
         <v>82</v>
@@ -3676,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s" s="7">
         <v>82</v>
@@ -3772,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s" s="7">
         <v>82</v>
@@ -3868,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s" s="7">
         <v>82</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s" s="7">
         <v>94</v>
@@ -3964,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s" s="7">
         <v>82</v>
@@ -4060,10 +4066,10 @@
         <v>4</v>
       </c>
       <c r="B104" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="C104" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="D104" t="s" s="7">
         <v>82</v>
@@ -4089,13 +4095,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s" s="7">
         <v>110</v>
       </c>
       <c r="C105" t="s" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s" s="7">
         <v>82</v>
@@ -4156,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s" s="7">
         <v>82</v>
@@ -4252,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s" s="7">
         <v>82</v>
@@ -4348,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s" s="7">
         <v>82</v>
@@ -4444,13 +4450,13 @@
         <v>4</v>
       </c>
       <c r="B116" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C116" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="D116" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s" s="7">
         <v>82</v>
@@ -4479,7 +4485,7 @@
         <v>114</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s" s="7">
         <v>116</v>
@@ -4543,10 +4549,10 @@
         <v>115</v>
       </c>
       <c r="C119" t="s" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D119" t="s" s="7">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E119" t="s" s="7">
         <v>82</v>
@@ -4636,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B122" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s" s="7">
         <v>82</v>
@@ -4735,60 +4741,60 @@
         <v>117</v>
       </c>
       <c r="C125" t="s" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" t="s" s="7">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F125" t="s" s="7">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G125" t="s" s="7">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H125" t="s" s="7">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I125" t="s" s="7">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J125" t="s" s="7">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J126" t="s" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">

--- a/sum.xlsx
+++ b/sum.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="200">
   <si>
     <t>Пациент</t>
   </si>
@@ -167,325 +167,328 @@
     <t>ствол ЛКА</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Дата вмешательства</t>
+  </si>
+  <si>
+    <t>01.02.2010</t>
+  </si>
+  <si>
+    <t>Росса</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Время ИК</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Нарушения ритма</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>ОИМ</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Повторная реваскуляризация</t>
+  </si>
+  <si>
+    <t>ОНМК</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Смерть</t>
+  </si>
+  <si>
+    <t>МАССЕ</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>ОПН</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Кровотечения</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>кол-во шунтов</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Тип стента</t>
+  </si>
+  <si>
+    <t>bms</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>полная неполна реваск</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>01.05.2014</t>
+  </si>
+  <si>
+    <t>лет</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PCI</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>01.08.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t>01.08.2013</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1 тип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0,58</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des </t>
+  </si>
+  <si>
+    <t>01.10.2013</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2 тип</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>0,59</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ноль</t>
+  </si>
+  <si>
+    <t>01.10.2012</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>des_bms</t>
+  </si>
+  <si>
+    <t>02.03.2013</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>02.02.2010</t>
+  </si>
+  <si>
     <t>106</t>
-  </si>
-  <si>
-    <t>Дата вмешательства</t>
-  </si>
-  <si>
-    <t>01.02.2010</t>
-  </si>
-  <si>
-    <t>Росса</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Время ИК</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Нарушения ритма</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>ОИМ</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Повторная реваскуляризация</t>
-  </si>
-  <si>
-    <t>ОНМК</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Смерть</t>
-  </si>
-  <si>
-    <t>МАССЕ</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>ОПН</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Кровотечения</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>кол-во шунтов</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Тип стента</t>
-  </si>
-  <si>
-    <t>bms</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>полная неполна реваск</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>01.05.2014</t>
-  </si>
-  <si>
-    <t>лет</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>PCI</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2</t>
-  </si>
-  <si>
-    <t>01.08.2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
-    <t>01.08.2013</t>
-  </si>
-  <si>
-    <t>ок</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1 тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>0,58</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">des </t>
-  </si>
-  <si>
-    <t>01.10.2013</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>2 тип</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>0,59</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>01.10.2012</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>des_bms</t>
-  </si>
-  <si>
-    <t>02.03.2013</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>02.02.2010</t>
   </si>
   <si>
     <t>6</t>
@@ -901,10 +904,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s" s="7">
         <v>82</v>
@@ -936,7 +939,7 @@
         <v>85</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s" s="7">
         <v>82</v>
@@ -997,22 +1000,22 @@
         <v>88</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s" s="7">
         <v>151</v>
       </c>
       <c r="F8" t="s" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s" s="7">
         <v>45</v>
@@ -1096,7 +1099,7 @@
         <v>95</v>
       </c>
       <c r="D11" t="s" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s" s="7">
         <v>152</v>
@@ -1105,16 +1108,16 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11" t="s" s="7">
         <v>49</v>
       </c>
       <c r="I11" t="s" s="7">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -1189,10 +1192,10 @@
         <v>34</v>
       </c>
       <c r="C14" t="s" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s" s="7">
         <v>82</v>
@@ -1221,10 +1224,10 @@
         <v>90</v>
       </c>
       <c r="C15" t="s" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s" s="7">
         <v>82</v>
@@ -1512,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s" s="7">
         <v>82</v>
@@ -1861,28 +1864,28 @@
         <v>34</v>
       </c>
       <c r="C35" t="s" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s" s="7">
         <v>153</v>
       </c>
       <c r="F35" t="s" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H35" t="s" s="7">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s" s="7">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s" s="7">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
@@ -1957,28 +1960,28 @@
         <v>27</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s" s="7">
         <v>154</v>
       </c>
       <c r="F38" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s" s="7">
+        <v>188</v>
+      </c>
+      <c r="J38" t="s" s="7">
         <v>163</v>
-      </c>
-      <c r="G38" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="I38" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="J38" t="s" s="7">
-        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -1989,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s" s="7">
         <v>34</v>
@@ -2001,16 +2004,16 @@
         <v>34</v>
       </c>
       <c r="G39" t="s" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H39" t="s" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s" s="7">
         <v>34</v>
       </c>
       <c r="J39" t="s" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -2056,13 +2059,13 @@
         <v>49</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s" s="7">
         <v>155</v>
       </c>
       <c r="F41" t="s" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s" s="7">
         <v>79</v>
@@ -2071,10 +2074,10 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="7">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J41" t="s" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -2106,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="J42" t="s" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -2149,28 +2152,28 @@
         <v>96</v>
       </c>
       <c r="C44" t="s" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s" s="7">
         <v>151</v>
       </c>
       <c r="F44" t="s" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I44" t="s" s="7">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J44" t="s" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -2187,13 +2190,13 @@
         <v>58</v>
       </c>
       <c r="E45" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s" s="7">
         <v>98</v>
       </c>
       <c r="G45" t="s" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s" s="7">
         <v>40</v>
@@ -2245,28 +2248,28 @@
         <v>97</v>
       </c>
       <c r="C47" t="s" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s" s="7">
         <v>156</v>
       </c>
       <c r="F47" t="s" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H47" t="s" s="7">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s" s="7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J47" t="s" s="7">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48">
@@ -2289,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s" s="7">
         <v>8</v>
@@ -2298,7 +2301,7 @@
         <v>28</v>
       </c>
       <c r="J48" t="s" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
@@ -2536,25 +2539,25 @@
         <v>88</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s" s="7">
         <v>151</v>
       </c>
       <c r="H56" t="s" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I56" t="s" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J56" t="s" s="7">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57">
@@ -2661,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s" s="7">
         <v>82</v>
@@ -2757,7 +2760,7 @@
         <v>102</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s" s="7">
         <v>82</v>
@@ -2853,7 +2856,7 @@
         <v>103</v>
       </c>
       <c r="C66" t="s" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s" s="7">
         <v>82</v>
@@ -2920,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s" s="7">
         <v>82</v>
@@ -2946,13 +2949,13 @@
         <v>51</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s" s="7">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s" s="7">
         <v>82</v>
@@ -3010,10 +3013,10 @@
         <v>53</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s" s="7">
         <v>146</v>
@@ -3022,19 +3025,19 @@
         <v>157</v>
       </c>
       <c r="F71" t="s" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G71" t="s" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s" s="7">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I71" t="s" s="7">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J71" t="s" s="7">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72">
@@ -3205,28 +3208,28 @@
         <v>91</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s" s="7">
         <v>21</v>
       </c>
       <c r="E77" t="s" s="7">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G77" t="s" s="7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H77" t="s" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I77" t="s" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J77" t="s" s="7">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -3301,22 +3304,22 @@
         <v>31</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s" s="7">
         <v>147</v>
       </c>
       <c r="E80" t="s" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F80" t="s" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G80" t="s" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H80" t="s" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I80" t="s" s="7">
         <v>103</v>
@@ -3330,7 +3333,7 @@
         <v>58</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s" s="7">
         <v>101</v>
@@ -3339,7 +3342,7 @@
         <v>148</v>
       </c>
       <c r="E81" t="s" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s" s="7">
         <v>98</v>
@@ -3351,7 +3354,7 @@
         <v>58</v>
       </c>
       <c r="I81" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J81" t="s" s="7">
         <v>58</v>
@@ -3403,22 +3406,22 @@
         <v>31</v>
       </c>
       <c r="E83" t="s" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s" s="7">
         <v>147</v>
       </c>
       <c r="G83" t="s" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H83" t="s" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I83" t="s" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J83" t="s" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84">
@@ -3435,13 +3438,13 @@
         <v>103</v>
       </c>
       <c r="E84" t="s" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F84" t="s" s="7">
         <v>103</v>
       </c>
       <c r="G84" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H84" t="s" s="7">
         <v>40</v>
@@ -3522,7 +3525,7 @@
         <v>59</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s" s="7">
         <v>58</v>
@@ -3618,10 +3621,10 @@
         <v>60</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s" s="7">
         <v>82</v>
@@ -3714,7 +3717,7 @@
         <v>62</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s" s="7">
         <v>82</v>
@@ -4098,10 +4101,10 @@
         <v>25</v>
       </c>
       <c r="B105" t="s" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" t="s" s="7">
         <v>82</v>
@@ -4194,7 +4197,7 @@
         <v>70</v>
       </c>
       <c r="B108" t="s" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s" s="7">
         <v>82</v>
@@ -4290,7 +4293,7 @@
         <v>72</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s" s="7">
         <v>82</v>
@@ -4386,7 +4389,7 @@
         <v>74</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s" s="7">
         <v>82</v>
@@ -4482,13 +4485,13 @@
         <v>76</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" t="s" s="7">
         <v>15</v>
       </c>
       <c r="D117" t="s" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s" s="7">
         <v>82</v>
@@ -4546,10 +4549,10 @@
         <v>78</v>
       </c>
       <c r="B119" t="s" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s" s="7">
         <v>149</v>
@@ -4578,7 +4581,7 @@
         <v>79</v>
       </c>
       <c r="B120" t="s" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s" s="7">
         <v>8</v>
@@ -4674,7 +4677,7 @@
         <v>81</v>
       </c>
       <c r="B123" t="s" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s" s="7">
         <v>82</v>
@@ -4738,31 +4741,31 @@
         <v>83</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s" s="7">
         <v>150</v>
       </c>
       <c r="E125" t="s" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F125" t="s" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G125" t="s" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H125" t="s" s="7">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I125" t="s" s="7">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J125" t="s" s="7">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126">
@@ -4834,7 +4837,7 @@
         <v>84</v>
       </c>
       <c r="B128" t="s" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" t="s" s="7">
         <v>82</v>
@@ -4866,7 +4869,7 @@
         <v>85</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" t="s" s="7">
         <v>82</v>
